--- a/src/test/resources/TestData/ApiTestData.xlsx
+++ b/src/test/resources/TestData/ApiTestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb610335\eclipse-workspace\Oct2023RestAssuredFramework\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb610335\eclipse-workspace\ApiDemo\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94366A77-95D0-411A-B2E1-F4DCC1578DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D224A33B-4DEF-4FD3-8077-20F8A508336E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5A4BB36-3665-4749-A82A-FA302FCE2AB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D5A4BB36-3665-4749-A82A-FA302FCE2AB8}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
+    <sheet name="petstore" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +70,60 @@
   </si>
   <si>
     <t>female</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>RamUN</t>
+  </si>
+  <si>
+    <t>SitaUN</t>
+  </si>
+  <si>
+    <t>RamFN</t>
+  </si>
+  <si>
+    <t>RamLN</t>
+  </si>
+  <si>
+    <t>BharatUN</t>
+  </si>
+  <si>
+    <t>SitaFN</t>
+  </si>
+  <si>
+    <t>BharatFN</t>
+  </si>
+  <si>
+    <t>SitaLN</t>
+  </si>
+  <si>
+    <t>BharatLN</t>
+  </si>
+  <si>
+    <t>ram123</t>
+  </si>
+  <si>
+    <t>sita123</t>
+  </si>
+  <si>
+    <t>bahart123</t>
+  </si>
+  <si>
+    <t>mob</t>
   </si>
 </sst>
 </file>
@@ -104,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,13 +167,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,9 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FA7A10-E7C0-4BF9-89F7-C903323A3A7E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -502,16 +572,109 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF46948-6B00-4D60-8E45-6E812880D609}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <MigrationWizIdDocumentLibraryPermissions xmlns="66fca688-ad19-4025-85f5-e7a8db355443" xsi:nil="true"/>
@@ -523,6 +686,15 @@
     <MigrationWizId xmlns="66fca688-ad19-4025-85f5-e7a8db355443" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,14 +961,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7BA721C-CA34-4A20-816A-92415E24A696}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F4F3BD-7C99-4B79-A57B-63A8E6BCF3BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -809,6 +973,14 @@
     <ds:schemaRef ds:uri="16439347-af44-4c51-b4d2-50cd0e9f4feb"/>
     <ds:schemaRef ds:uri="66fca688-ad19-4025-85f5-e7a8db355443"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7BA721C-CA34-4A20-816A-92415E24A696}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
